--- a/output/OUTPUT7_A05.xlsx
+++ b/output/OUTPUT7_A05.xlsx
@@ -270,19 +270,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -294,13 +294,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -723,9 +723,9 @@
   </sheetPr>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V23" sqref="V23"/>
+      <selection pane="topRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -990,7 +990,7 @@
       <c r="B3" s="33" t="n"/>
       <c r="C3" s="34" t="inlineStr">
         <is>
-          <t>B2000416-</t>
+          <t>T2000107-</t>
         </is>
       </c>
       <c r="D3" s="34" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E3" s="34" t="inlineStr">
         <is>
-          <t>b1006201-</t>
+          <t>B1008848-</t>
         </is>
       </c>
       <c r="F3" s="35" t="inlineStr">
@@ -1040,14 +1040,10 @@
       </c>
       <c r="M3" s="35" t="inlineStr">
         <is>
-          <t>T1000222-</t>
-        </is>
-      </c>
-      <c r="N3" s="35" t="inlineStr">
-        <is>
-          <t>B2010357-</t>
-        </is>
-      </c>
+          <t>M1015870-</t>
+        </is>
+      </c>
+      <c r="N3" s="35" t="n"/>
       <c r="O3" s="35" t="inlineStr">
         <is>
           <t>B1008990-</t>
@@ -1060,16 +1056,8 @@
       </c>
       <c r="Q3" s="35" t="n"/>
       <c r="R3" s="35" t="n"/>
-      <c r="S3" s="35" t="inlineStr">
-        <is>
-          <t>P1229551-</t>
-        </is>
-      </c>
-      <c r="T3" s="35" t="inlineStr">
-        <is>
-          <t>P1231998-</t>
-        </is>
-      </c>
+      <c r="S3" s="35" t="n"/>
+      <c r="T3" s="35" t="n"/>
       <c r="U3" s="35" t="inlineStr">
         <is>
           <t>B1006339-</t>
@@ -1091,18 +1079,22 @@
         </is>
       </c>
       <c r="Y3" s="35" t="n"/>
-      <c r="Z3" s="35" t="n"/>
+      <c r="Z3" s="35" t="inlineStr">
+        <is>
+          <t>B1000160-</t>
+        </is>
+      </c>
       <c r="AA3" s="35" t="inlineStr">
         <is>
           <t>P1084607-</t>
         </is>
       </c>
-      <c r="AB3" s="35" t="inlineStr">
-        <is>
-          <t>P1058791-</t>
-        </is>
-      </c>
-      <c r="AC3" s="35" t="n"/>
+      <c r="AB3" s="35" t="n"/>
+      <c r="AC3" s="35" t="inlineStr">
+        <is>
+          <t>t2002641-</t>
+        </is>
+      </c>
       <c r="AD3" s="35" t="inlineStr">
         <is>
           <t>B2010282-</t>
@@ -1265,9 +1257,10 @@
           <t>b2000464-</t>
         </is>
       </c>
-      <c r="D5" s="34" t="inlineStr">
-        <is>
-          <t>P1229841-</t>
+      <c r="D5" s="36" t="inlineStr">
+        <is>
+          <t>B1006913-
+P1229841-</t>
         </is>
       </c>
       <c r="E5" s="34" t="inlineStr">
@@ -1312,7 +1305,7 @@
       </c>
       <c r="M5" s="35" t="inlineStr">
         <is>
-          <t>T2001448-</t>
+          <t>X1000369-</t>
         </is>
       </c>
       <c r="N5" s="35" t="inlineStr">
@@ -1325,7 +1318,11 @@
           <t>B1000158-</t>
         </is>
       </c>
-      <c r="P5" s="35" t="n"/>
+      <c r="P5" s="35" t="inlineStr">
+        <is>
+          <t>T2001841-</t>
+        </is>
+      </c>
       <c r="Q5" s="35" t="inlineStr">
         <is>
           <t>P1233366-</t>
@@ -1333,7 +1330,7 @@
       </c>
       <c r="R5" s="35" t="inlineStr">
         <is>
-          <t>A1002463-</t>
+          <t>B2011479-</t>
         </is>
       </c>
       <c r="S5" s="35" t="inlineStr">
@@ -1363,7 +1360,7 @@
       </c>
       <c r="X5" s="35" t="inlineStr">
         <is>
-          <t>B2010692-</t>
+          <t>B2012285-</t>
         </is>
       </c>
       <c r="Y5" s="35" t="inlineStr">
@@ -1373,7 +1370,7 @@
       </c>
       <c r="Z5" s="35" t="inlineStr">
         <is>
-          <t>B2010719-</t>
+          <t>B2012234-</t>
         </is>
       </c>
       <c r="AA5" s="35" t="inlineStr">
@@ -1383,17 +1380,17 @@
       </c>
       <c r="AB5" s="35" t="inlineStr">
         <is>
-          <t>B1008201-</t>
+          <t>T1001069-</t>
         </is>
       </c>
       <c r="AC5" s="35" t="inlineStr">
         <is>
-          <t>t1000368-</t>
+          <t>B2011469-</t>
         </is>
       </c>
       <c r="AD5" s="35" t="inlineStr">
         <is>
-          <t>B2000592-</t>
+          <t>B2000956-</t>
         </is>
       </c>
     </row>
@@ -1550,23 +1547,23 @@
       <c r="B7" s="33" t="n"/>
       <c r="C7" s="34" t="inlineStr">
         <is>
-          <t>T2001736-</t>
+          <t>T1000885-</t>
         </is>
       </c>
       <c r="D7" s="34" t="n"/>
       <c r="E7" s="34" t="inlineStr">
         <is>
-          <t>T1000340-</t>
+          <t>t2002679-</t>
         </is>
       </c>
       <c r="F7" s="35" t="inlineStr">
         <is>
-          <t>b1000194-</t>
+          <t>P1201125-</t>
         </is>
       </c>
       <c r="G7" s="35" t="inlineStr">
         <is>
-          <t>B2010296-</t>
+          <t>M1016767-</t>
         </is>
       </c>
       <c r="H7" s="35" t="inlineStr">
@@ -1586,7 +1583,7 @@
       </c>
       <c r="K7" s="35" t="inlineStr">
         <is>
-          <t>B1004587-</t>
+          <t>B2011457-</t>
         </is>
       </c>
       <c r="L7" s="35" t="inlineStr">
@@ -1656,7 +1653,7 @@
       </c>
       <c r="Y7" s="35" t="inlineStr">
         <is>
-          <t>B1009114-</t>
+          <t>B2011476-</t>
         </is>
       </c>
       <c r="Z7" s="35" t="inlineStr">
@@ -1681,7 +1678,7 @@
       </c>
       <c r="AD7" s="35" t="inlineStr">
         <is>
-          <t>t2001759-</t>
+          <t>B2011471-</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1856,7 @@
       <c r="G9" s="35" t="n"/>
       <c r="H9" s="35" t="inlineStr">
         <is>
-          <t>m1013437-</t>
+          <t>P1207123-</t>
         </is>
       </c>
       <c r="I9" s="35" t="inlineStr">
@@ -1874,7 +1871,7 @@
       </c>
       <c r="K9" s="35" t="inlineStr">
         <is>
-          <t>B2000720-</t>
+          <t>B2012222-</t>
         </is>
       </c>
       <c r="L9" s="35" t="inlineStr">
@@ -1899,12 +1896,13 @@
       </c>
       <c r="P9" s="35" t="inlineStr">
         <is>
-          <t>B1004608-</t>
-        </is>
-      </c>
-      <c r="Q9" s="35" t="inlineStr">
-        <is>
-          <t>b1005921-</t>
+          <t>B2010660-</t>
+        </is>
+      </c>
+      <c r="Q9" s="37" t="inlineStr">
+        <is>
+          <t>B2011503-
+b1005921-</t>
         </is>
       </c>
       <c r="R9" s="35" t="inlineStr">
@@ -1914,12 +1912,12 @@
       </c>
       <c r="S9" s="35" t="inlineStr">
         <is>
-          <t>b2009949-</t>
+          <t>T1000478-</t>
         </is>
       </c>
       <c r="T9" s="35" t="inlineStr">
         <is>
-          <t>b1008572-</t>
+          <t>T1001018-</t>
         </is>
       </c>
       <c r="U9" s="35" t="inlineStr">
@@ -1929,10 +1927,14 @@
       </c>
       <c r="V9" s="35" t="inlineStr">
         <is>
-          <t>b2010191-</t>
-        </is>
-      </c>
-      <c r="W9" s="35" t="n"/>
+          <t>B2011477-</t>
+        </is>
+      </c>
+      <c r="W9" s="35" t="inlineStr">
+        <is>
+          <t>B1007392-</t>
+        </is>
+      </c>
       <c r="X9" s="35" t="inlineStr">
         <is>
           <t>b2000467-</t>
@@ -1943,15 +1945,20 @@
           <t>T2000301-</t>
         </is>
       </c>
-      <c r="Z9" s="35" t="n"/>
+      <c r="Z9" s="35" t="inlineStr">
+        <is>
+          <t>T1000249-</t>
+        </is>
+      </c>
       <c r="AA9" s="35" t="inlineStr">
         <is>
           <t>B1001139-</t>
         </is>
       </c>
-      <c r="AB9" s="35" t="inlineStr">
-        <is>
-          <t>t2002713-</t>
+      <c r="AB9" s="37" t="inlineStr">
+        <is>
+          <t>B2011304-
+t2002713-</t>
         </is>
       </c>
       <c r="AC9" s="35" t="inlineStr">
@@ -1961,7 +1968,7 @@
       </c>
       <c r="AD9" s="35" t="inlineStr">
         <is>
-          <t>B1005941-</t>
+          <t>B2010192-</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2140,7 @@
       </c>
       <c r="F11" s="35" t="inlineStr">
         <is>
-          <t>T2002641-</t>
+          <t>B2010542-</t>
         </is>
       </c>
       <c r="G11" s="35" t="inlineStr">
@@ -2203,7 +2210,7 @@
       </c>
       <c r="T11" s="35" t="inlineStr">
         <is>
-          <t>B1005929-</t>
+          <t>B1004351-</t>
         </is>
       </c>
       <c r="U11" s="35" t="inlineStr">
@@ -2211,7 +2218,11 @@
           <t>B2000984-</t>
         </is>
       </c>
-      <c r="V11" s="35" t="n"/>
+      <c r="V11" s="35" t="inlineStr">
+        <is>
+          <t>B2000147-</t>
+        </is>
+      </c>
       <c r="W11" s="35" t="inlineStr">
         <is>
           <t>B2010851-</t>
@@ -2237,11 +2248,7 @@
           <t>B2011058-</t>
         </is>
       </c>
-      <c r="AB11" s="35" t="inlineStr">
-        <is>
-          <t>B2010565-</t>
-        </is>
-      </c>
+      <c r="AB11" s="35" t="n"/>
       <c r="AC11" s="35" t="inlineStr">
         <is>
           <t>P1229892-</t>
@@ -2406,7 +2413,7 @@
       <c r="B13" s="33" t="n"/>
       <c r="C13" s="35" t="inlineStr">
         <is>
-          <t>B1008848-</t>
+          <t>X1000237-</t>
         </is>
       </c>
       <c r="D13" s="35" t="inlineStr">
@@ -2416,7 +2423,7 @@
       </c>
       <c r="E13" s="35" t="inlineStr">
         <is>
-          <t>B1008269-</t>
+          <t>X1000272-</t>
         </is>
       </c>
       <c r="F13" s="35" t="inlineStr">
@@ -2436,7 +2443,7 @@
       </c>
       <c r="I13" s="35" t="inlineStr">
         <is>
-          <t>T2001542-</t>
+          <t>B2010538-</t>
         </is>
       </c>
       <c r="J13" s="35" t="inlineStr">
@@ -2451,7 +2458,7 @@
       </c>
       <c r="L13" s="35" t="inlineStr">
         <is>
-          <t>B1008639-</t>
+          <t>b1008099-</t>
         </is>
       </c>
       <c r="M13" s="35" t="inlineStr">
@@ -2461,7 +2468,7 @@
       </c>
       <c r="N13" s="35" t="inlineStr">
         <is>
-          <t>B2010587-</t>
+          <t>B1008654-</t>
         </is>
       </c>
       <c r="O13" s="35" t="inlineStr">
@@ -2481,7 +2488,7 @@
       </c>
       <c r="R13" s="35" t="inlineStr">
         <is>
-          <t>T2001372-</t>
+          <t>T2001569-</t>
         </is>
       </c>
       <c r="S13" s="35" t="inlineStr">
@@ -2496,7 +2503,7 @@
       </c>
       <c r="U13" s="35" t="inlineStr">
         <is>
-          <t>T1001167-</t>
+          <t>T2003123-</t>
         </is>
       </c>
       <c r="V13" s="35" t="inlineStr">
@@ -2511,7 +2518,7 @@
       </c>
       <c r="X13" s="35" t="inlineStr">
         <is>
-          <t>T2001294-</t>
+          <t>B1008368-</t>
         </is>
       </c>
       <c r="Y13" s="35" t="inlineStr">
@@ -2536,7 +2543,7 @@
       </c>
       <c r="AC13" s="35" t="inlineStr">
         <is>
-          <t>T1000958-</t>
+          <t>B1004444-</t>
         </is>
       </c>
       <c r="AD13" s="35" t="inlineStr">
@@ -2695,7 +2702,7 @@
     </row>
     <row r="15" ht="35" customHeight="1">
       <c r="A15" s="24" t="n"/>
-      <c r="B15" s="36" t="n"/>
+      <c r="B15" s="38" t="n"/>
       <c r="C15" s="34" t="inlineStr">
         <is>
           <t>P1211835-</t>
@@ -2708,12 +2715,12 @@
       </c>
       <c r="E15" s="34" t="inlineStr">
         <is>
-          <t>B1008657-</t>
+          <t>B2010714-</t>
         </is>
       </c>
       <c r="F15" s="34" t="inlineStr">
         <is>
-          <t>B1005014-</t>
+          <t>M1015680-</t>
         </is>
       </c>
       <c r="G15" s="34" t="inlineStr">
@@ -2738,7 +2745,7 @@
       </c>
       <c r="K15" s="34" t="inlineStr">
         <is>
-          <t>B1007671-</t>
+          <t>B2010961-</t>
         </is>
       </c>
       <c r="L15" s="34" t="inlineStr">
@@ -2753,12 +2760,12 @@
       </c>
       <c r="N15" s="34" t="inlineStr">
         <is>
-          <t>B1008723-</t>
+          <t>M1010556-</t>
         </is>
       </c>
       <c r="O15" s="34" t="inlineStr">
         <is>
-          <t>X1000127-</t>
+          <t>T1000960-</t>
         </is>
       </c>
       <c r="P15" s="34" t="inlineStr">
@@ -2776,10 +2783,9 @@
           <t>b1004653-</t>
         </is>
       </c>
-      <c r="S15" s="37" t="inlineStr">
-        <is>
-          <t>B1001276-
-t2002720-</t>
+      <c r="S15" s="34" t="inlineStr">
+        <is>
+          <t>B2000592-</t>
         </is>
       </c>
       <c r="T15" s="34" t="inlineStr">
@@ -2814,7 +2820,7 @@
       </c>
       <c r="Z15" s="34" t="inlineStr">
         <is>
-          <t>B2000226-</t>
+          <t>T2003306-</t>
         </is>
       </c>
       <c r="AA15" s="34" t="inlineStr">
@@ -2834,7 +2840,7 @@
       </c>
       <c r="AD15" s="34" t="inlineStr">
         <is>
-          <t>B1007722-</t>
+          <t>x1000214-</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3154,7 @@
       </c>
       <c r="L18" s="41" t="inlineStr">
         <is>
-          <t>05205G</t>
+          <t>05201G</t>
         </is>
       </c>
       <c r="M18" s="41" t="inlineStr">
@@ -3255,51 +3261,39 @@
           <t>B2010285-</t>
         </is>
       </c>
-      <c r="E19" s="35" t="n"/>
+      <c r="E19" s="35" t="inlineStr">
+        <is>
+          <t>B2009958-</t>
+        </is>
+      </c>
       <c r="F19" s="35" t="n"/>
-      <c r="G19" s="35" t="inlineStr">
-        <is>
-          <t>B1005384-</t>
-        </is>
-      </c>
-      <c r="H19" s="35" t="inlineStr">
-        <is>
-          <t>B1009185-</t>
-        </is>
-      </c>
+      <c r="G19" s="35" t="n"/>
+      <c r="H19" s="35" t="n"/>
       <c r="I19" s="35" t="inlineStr">
         <is>
           <t>B1000215-</t>
         </is>
       </c>
-      <c r="J19" s="35" t="inlineStr">
-        <is>
-          <t>T2002755-</t>
-        </is>
-      </c>
-      <c r="K19" s="35" t="inlineStr">
-        <is>
-          <t>b1009199-</t>
-        </is>
-      </c>
+      <c r="J19" s="35" t="n"/>
+      <c r="K19" s="35" t="n"/>
       <c r="L19" s="35" t="n"/>
       <c r="M19" s="35" t="inlineStr">
         <is>
           <t>T2001106-</t>
         </is>
       </c>
-      <c r="N19" s="35" t="inlineStr">
-        <is>
-          <t>B1006323-</t>
-        </is>
-      </c>
+      <c r="N19" s="35" t="n"/>
       <c r="O19" s="35" t="n"/>
       <c r="P19" s="35" t="inlineStr">
         <is>
           <t>P1223146-</t>
         </is>
       </c>
-      <c r="Q19" s="35" t="n"/>
+      <c r="Q19" s="35" t="inlineStr">
+        <is>
+          <t>T1000718-</t>
+        </is>
+      </c>
       <c r="R19" s="35" t="inlineStr">
         <is>
           <t>B1007562-</t>
@@ -3315,17 +3309,17 @@
           <t>P1229681-</t>
         </is>
       </c>
-      <c r="U19" s="35" t="n"/>
+      <c r="U19" s="35" t="inlineStr">
+        <is>
+          <t>p1233498-</t>
+        </is>
+      </c>
       <c r="V19" s="35" t="inlineStr">
         <is>
-          <t>B2000884-</t>
-        </is>
-      </c>
-      <c r="W19" s="35" t="inlineStr">
-        <is>
-          <t>x1000104-</t>
-        </is>
-      </c>
+          <t>B1006661-</t>
+        </is>
+      </c>
+      <c r="W19" s="35" t="n"/>
       <c r="X19" s="35" t="inlineStr">
         <is>
           <t>M1015602-</t>
@@ -3334,7 +3328,7 @@
       <c r="Y19" s="35" t="n"/>
       <c r="Z19" s="35" t="inlineStr">
         <is>
-          <t>b1007260-</t>
+          <t>t1000222-</t>
         </is>
       </c>
       <c r="AA19" s="35" t="inlineStr">
@@ -3354,7 +3348,7 @@
       </c>
       <c r="AD19" s="35" t="inlineStr">
         <is>
-          <t>B1004799-</t>
+          <t>b1008568-</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3406,7 @@
       </c>
       <c r="L20" s="41" t="inlineStr">
         <is>
-          <t>05205F</t>
+          <t>05201F</t>
         </is>
       </c>
       <c r="M20" s="41" t="inlineStr">
@@ -3511,7 +3505,7 @@
       <c r="B21" s="35" t="n"/>
       <c r="C21" s="35" t="inlineStr">
         <is>
-          <t>T2001283-</t>
+          <t>B1004558-</t>
         </is>
       </c>
       <c r="D21" s="35" t="n"/>
@@ -3522,7 +3516,7 @@
       </c>
       <c r="F21" s="35" t="inlineStr">
         <is>
-          <t>B1008185-</t>
+          <t>P1229998-</t>
         </is>
       </c>
       <c r="G21" s="35" t="inlineStr">
@@ -3550,10 +3544,14 @@
           <t>B1005876-</t>
         </is>
       </c>
-      <c r="L21" s="35" t="n"/>
+      <c r="L21" s="35" t="inlineStr">
+        <is>
+          <t>B2000092-</t>
+        </is>
+      </c>
       <c r="M21" s="35" t="inlineStr">
         <is>
-          <t>B2010180-</t>
+          <t>B2011478-</t>
         </is>
       </c>
       <c r="N21" s="35" t="inlineStr">
@@ -3561,11 +3559,7 @@
           <t>B1007314-</t>
         </is>
       </c>
-      <c r="O21" s="35" t="inlineStr">
-        <is>
-          <t>P1229700-</t>
-        </is>
-      </c>
+      <c r="O21" s="35" t="n"/>
       <c r="P21" s="35" t="inlineStr">
         <is>
           <t>m1016770-</t>
@@ -3578,7 +3572,7 @@
       </c>
       <c r="R21" s="35" t="inlineStr">
         <is>
-          <t>B2010596-</t>
+          <t>T2001109-</t>
         </is>
       </c>
       <c r="S21" s="35" t="inlineStr">
@@ -3628,7 +3622,7 @@
       </c>
       <c r="AB21" s="35" t="inlineStr">
         <is>
-          <t>T2002332-</t>
+          <t>B1005667-</t>
         </is>
       </c>
       <c r="AC21" s="35" t="inlineStr">
@@ -3638,7 +3632,7 @@
       </c>
       <c r="AD21" s="35" t="inlineStr">
         <is>
-          <t>t2002337-</t>
+          <t>X1000302-</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3690,7 @@
       </c>
       <c r="L22" s="41" t="inlineStr">
         <is>
-          <t>05205E</t>
+          <t>05201E</t>
         </is>
       </c>
       <c r="M22" s="41" t="inlineStr">
@@ -3815,7 +3809,7 @@
       </c>
       <c r="G23" s="35" t="inlineStr">
         <is>
-          <t>B1004822-</t>
+          <t>B1004705-</t>
         </is>
       </c>
       <c r="H23" s="35" t="inlineStr">
@@ -3825,7 +3819,7 @@
       </c>
       <c r="I23" s="35" t="inlineStr">
         <is>
-          <t>t2001269-</t>
+          <t>T2001812-</t>
         </is>
       </c>
       <c r="J23" s="35" t="inlineStr">
@@ -3838,8 +3832,16 @@
           <t>B2000202-</t>
         </is>
       </c>
-      <c r="L23" s="35" t="n"/>
-      <c r="M23" s="35" t="n"/>
+      <c r="L23" s="35" t="inlineStr">
+        <is>
+          <t>B1007667-</t>
+        </is>
+      </c>
+      <c r="M23" s="35" t="inlineStr">
+        <is>
+          <t>b2000539-</t>
+        </is>
+      </c>
       <c r="N23" s="35" t="inlineStr">
         <is>
           <t>B1005924-</t>
@@ -3882,12 +3884,12 @@
       </c>
       <c r="V23" s="35" t="inlineStr">
         <is>
-          <t>m1000860-</t>
+          <t>b2012300-</t>
         </is>
       </c>
       <c r="W23" s="35" t="inlineStr">
         <is>
-          <t>t2001044-</t>
+          <t>B2012286-</t>
         </is>
       </c>
       <c r="X23" s="35" t="inlineStr">
@@ -3902,27 +3904,28 @@
       </c>
       <c r="Z23" s="35" t="inlineStr">
         <is>
-          <t>B1004346-</t>
-        </is>
-      </c>
-      <c r="AA23" s="35" t="inlineStr">
-        <is>
-          <t>B1004640-</t>
+          <t>T2002824-</t>
+        </is>
+      </c>
+      <c r="AA23" s="37" t="inlineStr">
+        <is>
+          <t>B1004640-
+B2011447-</t>
         </is>
       </c>
       <c r="AB23" s="35" t="inlineStr">
         <is>
-          <t>B1008666-</t>
+          <t>B1005039-</t>
         </is>
       </c>
       <c r="AC23" s="35" t="inlineStr">
         <is>
-          <t>B1005456-</t>
+          <t>B2012280-</t>
         </is>
       </c>
       <c r="AD23" s="35" t="inlineStr">
         <is>
-          <t>M1010556-</t>
+          <t>B1009260-</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3983,7 @@
       </c>
       <c r="L24" s="41" t="inlineStr">
         <is>
-          <t>05205D</t>
+          <t>05201D</t>
         </is>
       </c>
       <c r="M24" s="41" t="inlineStr">
@@ -4084,7 +4087,7 @@
       </c>
       <c r="D25" s="35" t="inlineStr">
         <is>
-          <t>B1008607-</t>
+          <t>T2001175-</t>
         </is>
       </c>
       <c r="E25" s="35" t="inlineStr">
@@ -4092,20 +4095,24 @@
           <t>M1015277-</t>
         </is>
       </c>
-      <c r="F25" s="35" t="n"/>
+      <c r="F25" s="35" t="inlineStr">
+        <is>
+          <t>p1227692-</t>
+        </is>
+      </c>
       <c r="G25" s="35" t="inlineStr">
         <is>
-          <t>b1004252-</t>
+          <t>b1006933-</t>
         </is>
       </c>
       <c r="H25" s="35" t="inlineStr">
         <is>
-          <t>P1233384-</t>
+          <t>B2011465-</t>
         </is>
       </c>
       <c r="I25" s="35" t="inlineStr">
         <is>
-          <t>B1008703-</t>
+          <t>t1000279-</t>
         </is>
       </c>
       <c r="J25" s="35" t="inlineStr">
@@ -4118,7 +4125,11 @@
           <t>b1007277-</t>
         </is>
       </c>
-      <c r="L25" s="35" t="n"/>
+      <c r="L25" s="35" t="inlineStr">
+        <is>
+          <t>B1008057-</t>
+        </is>
+      </c>
       <c r="M25" s="35" t="inlineStr">
         <is>
           <t>B2000197-</t>
@@ -4127,10 +4138,14 @@
       <c r="N25" s="35" t="n"/>
       <c r="O25" s="35" t="inlineStr">
         <is>
-          <t>T1001193-</t>
-        </is>
-      </c>
-      <c r="P25" s="35" t="n"/>
+          <t>X1000084-</t>
+        </is>
+      </c>
+      <c r="P25" s="35" t="inlineStr">
+        <is>
+          <t>B2000851-</t>
+        </is>
+      </c>
       <c r="Q25" s="35" t="inlineStr">
         <is>
           <t>t1000799-</t>
@@ -4141,31 +4156,34 @@
           <t>t2001668-</t>
         </is>
       </c>
-      <c r="S25" s="35" t="n"/>
-      <c r="T25" s="38" t="inlineStr">
-        <is>
-          <t>B2010119-
-b1009256-</t>
+      <c r="S25" s="35" t="inlineStr">
+        <is>
+          <t>b1009256-</t>
+        </is>
+      </c>
+      <c r="T25" s="35" t="inlineStr">
+        <is>
+          <t>B2010119-</t>
         </is>
       </c>
       <c r="U25" s="35" t="inlineStr">
         <is>
-          <t>B2010121-</t>
+          <t>B1000203-</t>
         </is>
       </c>
       <c r="V25" s="35" t="inlineStr">
         <is>
-          <t>B2010157-</t>
+          <t>B2010705-</t>
         </is>
       </c>
       <c r="W25" s="35" t="inlineStr">
         <is>
-          <t>T2001715-</t>
+          <t>T2002842-</t>
         </is>
       </c>
       <c r="X25" s="35" t="inlineStr">
         <is>
-          <t>b1008574-</t>
+          <t>B1008552-</t>
         </is>
       </c>
       <c r="Y25" s="35" t="inlineStr">
@@ -4180,7 +4198,7 @@
       </c>
       <c r="AA25" s="35" t="inlineStr">
         <is>
-          <t>B2000851-</t>
+          <t>B1008666-</t>
         </is>
       </c>
       <c r="AB25" s="35" t="inlineStr">
@@ -4190,12 +4208,12 @@
       </c>
       <c r="AC25" s="35" t="inlineStr">
         <is>
-          <t>B2011301-</t>
+          <t>M1013356-</t>
         </is>
       </c>
       <c r="AD25" s="35" t="inlineStr">
         <is>
-          <t>P1231954-</t>
+          <t>T2001781-</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4271,7 @@
       </c>
       <c r="L26" s="41" t="inlineStr">
         <is>
-          <t>05205C</t>
+          <t>05201C</t>
         </is>
       </c>
       <c r="M26" s="41" t="inlineStr">
@@ -4372,7 +4390,7 @@
       </c>
       <c r="G27" s="35" t="inlineStr">
         <is>
-          <t>B2009939-</t>
+          <t>B1008807-</t>
         </is>
       </c>
       <c r="H27" s="35" t="inlineStr">
@@ -4387,7 +4405,7 @@
       </c>
       <c r="J27" s="35" t="inlineStr">
         <is>
-          <t>B2000217-</t>
+          <t>B1009049-</t>
         </is>
       </c>
       <c r="K27" s="35" t="inlineStr">
@@ -4395,8 +4413,16 @@
           <t>B1008620-</t>
         </is>
       </c>
-      <c r="L27" s="35" t="n"/>
-      <c r="M27" s="35" t="n"/>
+      <c r="L27" s="35" t="inlineStr">
+        <is>
+          <t>X1000080-</t>
+        </is>
+      </c>
+      <c r="M27" s="35" t="inlineStr">
+        <is>
+          <t>X1000089-</t>
+        </is>
+      </c>
       <c r="N27" s="35" t="inlineStr">
         <is>
           <t>B2009925-</t>
@@ -4439,12 +4465,12 @@
       </c>
       <c r="V27" s="35" t="inlineStr">
         <is>
-          <t>B2010768-</t>
+          <t>B2000519-</t>
         </is>
       </c>
       <c r="W27" s="35" t="inlineStr">
         <is>
-          <t>M1016567-</t>
+          <t>B2010533-</t>
         </is>
       </c>
       <c r="X27" s="35" t="inlineStr">
@@ -4462,24 +4488,20 @@
           <t>B1001210-</t>
         </is>
       </c>
-      <c r="AA27" s="35" t="inlineStr">
-        <is>
-          <t>B2000090-</t>
-        </is>
-      </c>
+      <c r="AA27" s="35" t="n"/>
       <c r="AB27" s="35" t="inlineStr">
         <is>
-          <t>B1004444-</t>
+          <t>B1006176-</t>
         </is>
       </c>
       <c r="AC27" s="35" t="inlineStr">
         <is>
-          <t>B1008568-</t>
+          <t>B2011342-</t>
         </is>
       </c>
       <c r="AD27" s="35" t="inlineStr">
         <is>
-          <t>B2000220-</t>
+          <t>P1228034-</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4559,7 @@
       </c>
       <c r="L28" s="41" t="inlineStr">
         <is>
-          <t>05205B</t>
+          <t>05201B</t>
         </is>
       </c>
       <c r="M28" s="41" t="inlineStr">
@@ -4641,7 +4663,7 @@
       </c>
       <c r="D29" s="35" t="inlineStr">
         <is>
-          <t>B2000616-</t>
+          <t>M1015253-</t>
         </is>
       </c>
       <c r="E29" s="35" t="inlineStr">
@@ -4666,20 +4688,27 @@
       </c>
       <c r="I29" s="35" t="inlineStr">
         <is>
-          <t>B2010368-</t>
+          <t>T2001939-</t>
         </is>
       </c>
       <c r="J29" s="35" t="inlineStr">
         <is>
-          <t>P1092833-</t>
-        </is>
-      </c>
-      <c r="K29" s="35" t="n"/>
-      <c r="L29" s="35" t="n"/>
-      <c r="M29" s="38" t="inlineStr">
-        <is>
-          <t>B1004434-
-B2010534-</t>
+          <t>B2011410-</t>
+        </is>
+      </c>
+      <c r="K29" s="35" t="inlineStr">
+        <is>
+          <t>T1000840-</t>
+        </is>
+      </c>
+      <c r="L29" s="35" t="inlineStr">
+        <is>
+          <t>T2001484-</t>
+        </is>
+      </c>
+      <c r="M29" s="35" t="inlineStr">
+        <is>
+          <t>B2010241-</t>
         </is>
       </c>
       <c r="N29" s="35" t="inlineStr">
@@ -4704,7 +4733,7 @@
       </c>
       <c r="R29" s="35" t="inlineStr">
         <is>
-          <t>B1007457-</t>
+          <t>B2012238-</t>
         </is>
       </c>
       <c r="S29" s="35" t="inlineStr">
@@ -4714,7 +4743,7 @@
       </c>
       <c r="T29" s="35" t="inlineStr">
         <is>
-          <t>B2011083-</t>
+          <t>B1008338-</t>
         </is>
       </c>
       <c r="U29" s="35" t="inlineStr">
@@ -4724,7 +4753,7 @@
       </c>
       <c r="V29" s="35" t="inlineStr">
         <is>
-          <t>B2000079-</t>
+          <t>B2011435-</t>
         </is>
       </c>
       <c r="W29" s="35" t="inlineStr">
@@ -4749,7 +4778,7 @@
       </c>
       <c r="AA29" s="35" t="inlineStr">
         <is>
-          <t>p1225223-</t>
+          <t>B2012205-</t>
         </is>
       </c>
       <c r="AB29" s="35" t="inlineStr">
@@ -4764,7 +4793,7 @@
       </c>
       <c r="AD29" s="35" t="inlineStr">
         <is>
-          <t>t1000318-</t>
+          <t>B1005997-</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4851,7 @@
       </c>
       <c r="L30" s="41" t="inlineStr">
         <is>
-          <t>05205A</t>
+          <t>05201A</t>
         </is>
       </c>
       <c r="M30" s="41" t="inlineStr">
@@ -4931,7 +4960,7 @@
       </c>
       <c r="E31" s="34" t="inlineStr">
         <is>
-          <t>B2011322-</t>
+          <t>T1001032-</t>
         </is>
       </c>
       <c r="F31" s="34" t="inlineStr">
@@ -4951,7 +4980,7 @@
       </c>
       <c r="I31" s="34" t="inlineStr">
         <is>
-          <t>T2002747-</t>
+          <t>T2003391-</t>
         </is>
       </c>
       <c r="J31" s="34" t="inlineStr">
@@ -4964,8 +4993,16 @@
           <t>B1009093-</t>
         </is>
       </c>
-      <c r="L31" s="34" t="n"/>
-      <c r="M31" s="34" t="n"/>
+      <c r="L31" s="34" t="inlineStr">
+        <is>
+          <t>B1009103-</t>
+        </is>
+      </c>
+      <c r="M31" s="34" t="inlineStr">
+        <is>
+          <t>B1006254-</t>
+        </is>
+      </c>
       <c r="N31" s="34" t="inlineStr">
         <is>
           <t>B1008433-</t>
@@ -4978,7 +5015,7 @@
       </c>
       <c r="P31" s="34" t="inlineStr">
         <is>
-          <t>T1000945-</t>
+          <t>B1006049-</t>
         </is>
       </c>
       <c r="Q31" s="34" t="inlineStr">
@@ -5028,22 +5065,22 @@
       </c>
       <c r="Z31" s="34" t="inlineStr">
         <is>
-          <t>B1008890-</t>
+          <t>T2001468-</t>
         </is>
       </c>
       <c r="AA31" s="34" t="inlineStr">
         <is>
-          <t>B1004585-</t>
+          <t>B2000554-</t>
         </is>
       </c>
       <c r="AB31" s="34" t="inlineStr">
         <is>
-          <t>P1224648-</t>
+          <t>B2012251-</t>
         </is>
       </c>
       <c r="AC31" s="34" t="inlineStr">
         <is>
-          <t>B1005054-</t>
+          <t>B2011442-</t>
         </is>
       </c>
       <c r="AD31" s="34" t="inlineStr">
